--- a/src/config/excel/courses.xlsx
+++ b/src/config/excel/courses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\test_ExamReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A030878-EE0E-4C09-AB6E-8573EC4EBF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A0C3DE-6D27-4C01-B107-76BB208C6AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="7100" windowHeight="10401" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11720" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>test</t>
+    <t>tan</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,7 +417,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>

--- a/src/config/excel/courses.xlsx
+++ b/src/config/excel/courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\test_ExamReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A0C3DE-6D27-4C01-B107-76BB208C6AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C6AB64-54EF-4C10-A88E-56924848B395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11720" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
+    <workbookView xWindow="343" yWindow="1063" windowWidth="11487" windowHeight="10402" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>tan</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,7 +417,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>

--- a/src/config/excel/courses.xlsx
+++ b/src/config/excel/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\test_ExamReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C6AB64-54EF-4C10-A88E-56924848B395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0525964A-AD52-4028-941D-F977DA2013E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="343" yWindow="1063" windowWidth="11487" windowHeight="10402" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>courseID</t>
   </si>
@@ -39,7 +39,16 @@
     <t>name</t>
   </si>
   <si>
-    <t>test</t>
+    <t>MATH1100</t>
+  </si>
+  <si>
+    <t>Phát triển ứng dụng Web</t>
+  </si>
+  <si>
+    <t>MATH1101</t>
+  </si>
+  <si>
+    <t>Đại số</t>
   </si>
 </sst>
 </file>
@@ -395,15 +404,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F046EB61-BE10-4508-9729-C93D412EBD8E}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="2"/>
+    <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.296875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -416,11 +426,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
